--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4010.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4010.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.547328057678824</v>
+        <v>3.818765640258789</v>
       </c>
       <c r="B1">
-        <v>2.566110765765597</v>
+        <v>5.915517807006836</v>
       </c>
       <c r="C1">
-        <v>3.09320103249921</v>
+        <v>6.422956466674805</v>
       </c>
       <c r="D1">
-        <v>3.586632170022265</v>
+        <v>10.04370021820068</v>
       </c>
       <c r="E1">
-        <v>2.003449222422053</v>
+        <v>6.398133277893066</v>
       </c>
     </row>
   </sheetData>
